--- a/main/Output/task_2.xlsx
+++ b/main/Output/task_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Employee Name</t>
   </si>
@@ -34,202 +34,148 @@
     <t>Months Spent</t>
   </si>
   <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>CLARK</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>SMITH</t>
+  </si>
+  <si>
+    <t>WARD</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>BLAKE</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>TURNER</t>
+  </si>
+  <si>
     <t>SCOTT</t>
   </si>
   <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>SMITH</t>
-  </si>
-  <si>
-    <t>ALLEN</t>
-  </si>
-  <si>
-    <t>WARD</t>
-  </si>
-  <si>
-    <t>JONES</t>
+    <t>MILLER</t>
   </si>
   <si>
     <t>MARTIN</t>
   </si>
   <si>
-    <t>BLAKE</t>
-  </si>
-  <si>
-    <t>CLARK</t>
-  </si>
-  <si>
-    <t>KING</t>
-  </si>
-  <si>
-    <t>TURNER</t>
-  </si>
-  <si>
-    <t>ADAMS</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>MILLER</t>
+    <t>7839</t>
+  </si>
+  <si>
+    <t>7782</t>
+  </si>
+  <si>
+    <t>7499</t>
+  </si>
+  <si>
+    <t>7876</t>
+  </si>
+  <si>
+    <t>7566</t>
+  </si>
+  <si>
+    <t>7369</t>
+  </si>
+  <si>
+    <t>7521</t>
+  </si>
+  <si>
+    <t>7900</t>
+  </si>
+  <si>
+    <t>7698</t>
+  </si>
+  <si>
+    <t>7902</t>
+  </si>
+  <si>
+    <t>7844</t>
   </si>
   <si>
     <t>7788</t>
   </si>
   <si>
-    <t>7900</t>
-  </si>
-  <si>
-    <t>7369</t>
-  </si>
-  <si>
-    <t>7499</t>
-  </si>
-  <si>
-    <t>7521</t>
-  </si>
-  <si>
-    <t>7566</t>
+    <t>7934</t>
   </si>
   <si>
     <t>7654</t>
   </si>
   <si>
-    <t>7698</t>
-  </si>
-  <si>
-    <t>7782</t>
-  </si>
-  <si>
-    <t>7839</t>
-  </si>
-  <si>
-    <t>7844</t>
-  </si>
-  <si>
-    <t>7876</t>
-  </si>
-  <si>
-    <t>7902</t>
-  </si>
-  <si>
-    <t>7934</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>SALES</t>
   </si>
   <si>
     <t>RESEARCH</t>
   </si>
   <si>
-    <t>ACCOUNTING</t>
-  </si>
-  <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>12480</t>
-  </si>
-  <si>
-    <t>12350</t>
+    <t>2450000</t>
+  </si>
+  <si>
+    <t>1215200</t>
+  </si>
+  <si>
+    <t>798400</t>
+  </si>
+  <si>
+    <t>465300</t>
+  </si>
+  <si>
+    <t>1481550</t>
   </si>
   <si>
     <t>400800</t>
   </si>
   <si>
-    <t>798400</t>
-  </si>
-  <si>
     <t>623750</t>
   </si>
   <si>
-    <t>1481550</t>
+    <t>464550</t>
+  </si>
+  <si>
+    <t>1416450</t>
+  </si>
+  <si>
+    <t>1470000</t>
+  </si>
+  <si>
+    <t>739500</t>
+  </si>
+  <si>
+    <t>1184480</t>
+  </si>
+  <si>
+    <t>634400</t>
   </si>
   <si>
     <t>615000</t>
-  </si>
-  <si>
-    <t>1416450</t>
-  </si>
-  <si>
-    <t>1215200</t>
-  </si>
-  <si>
-    <t>1161000</t>
-  </si>
-  <si>
-    <t>2450000</t>
-  </si>
-  <si>
-    <t>739500</t>
-  </si>
-  <si>
-    <t>465300</t>
-  </si>
-  <si>
-    <t>452200</t>
-  </si>
-  <si>
-    <t>1470000</t>
-  </si>
-  <si>
-    <t>634400</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>488</t>
   </si>
 </sst>
 </file>
@@ -587,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,16 +575,16 @@
       <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
+      <c r="F2">
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -649,16 +595,16 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
-        <v>58</v>
+      <c r="F3">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -669,36 +615,36 @@
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>59</v>
+      <c r="F4">
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>60</v>
+      <c r="F5">
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -709,16 +655,16 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
-        <v>61</v>
+      <c r="F6">
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -729,228 +675,168 @@
       <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>61</v>
+      <c r="F7">
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
-        <v>62</v>
+      <c r="F8">
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
-        <v>63</v>
+      <c r="F9">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10">
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>65</v>
+      <c r="F11">
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>66</v>
+      <c r="F12">
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>67</v>
+      <c r="F13">
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
+      <c r="F14">
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
+      <c r="F15">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
